--- a/assets/student_submissions/q_and_a_frank.xlsx
+++ b/assets/student_submissions/q_and_a_frank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khemveasna/Documents/code/llm_related/public-mcp-grader/assets/student_submissions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khemveasna/Documents/code/llm_related/workspace_gemini2/student_submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B5435A-2F33-F24B-ADCF-0C5D4565C0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27BC903-5EE4-1E4B-B9BC-5D706F093360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17480" xr2:uid="{AE5150BE-B936-CE4F-BF16-0D2BA699E345}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>1pt</t>
   </si>
@@ -50,19 +50,38 @@
     <t>Given that a person is staff, what is the probability they prefer dogs?</t>
   </si>
   <si>
-    <t>4pts</t>
-  </si>
-  <si>
     <t>2pt</t>
+  </si>
+  <si>
+    <t>For the 4 equestions below, refer to the contingency table on the screen.</t>
+  </si>
+  <si>
+    <t>Is variance a measure of spread? True or False.</t>
+  </si>
+  <si>
+    <t>Mean and median will always be the same value. True or False.</t>
+  </si>
+  <si>
+    <t>8pts</t>
+  </si>
+  <si>
+    <t>I need some help.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -95,10 +114,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -107,6 +129,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -443,122 +468,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA30B93C-3270-044E-A63D-9B652F58FC62}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C18" sqref="C18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
-      <c r="C4" s="4">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="5">
         <f>13/30</f>
         <v>0.43333333333333335</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="4">
-        <f>5/12</f>
-        <v>0.41666666666666669</v>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="5">
+        <f>0/12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="5">
+        <f>5/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="C24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C4:F4"/>
+  <mergeCells count="13">
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="C7:L7"/>
     <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
